--- a/SuRGE_Sharepoint/data/NAR/CH4_051_Tully_Lake/dataSheets/surgeData051.xlsx
+++ b/SuRGE_Sharepoint/data/NAR/CH4_051_Tully_Lake/dataSheets/surgeData051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/NAR/CH4_051_Tully_Lake/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/NAR/CH4_051_Tully_Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="789" documentId="8_{964DABCA-06A7-40D0-992B-F21344E0254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD20075-620B-4245-BE0F-A7FDE9875359}"/>
+  <xr:revisionPtr revIDLastSave="790" documentId="8_{964DABCA-06A7-40D0-992B-F21344E0254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6063221E-64D7-43D8-9E39-5055CA19BBEC}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1437,9 +1437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1477,7 +1477,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1583,7 +1583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1725,7 +1725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1736,82 +1736,82 @@
   <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6328125" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" customWidth="1"/>
-    <col min="23" max="23" width="14.6328125" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.90625" customWidth="1"/>
-    <col min="26" max="26" width="11.54296875" customWidth="1"/>
-    <col min="27" max="27" width="14.08984375" customWidth="1"/>
-    <col min="28" max="28" width="14.81640625" customWidth="1"/>
-    <col min="29" max="29" width="13.54296875" customWidth="1"/>
-    <col min="30" max="30" width="11.90625" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.81640625" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" customWidth="1"/>
-    <col min="37" max="37" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="13.5546875" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" customWidth="1"/>
+    <col min="37" max="37" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.6328125" customWidth="1"/>
-    <col min="49" max="49" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.08984375" customWidth="1"/>
+    <col min="47" max="47" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="49" max="49" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.81640625" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.77734375" customWidth="1"/>
     <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.453125" customWidth="1"/>
-    <col min="75" max="75" width="13.54296875" customWidth="1"/>
-    <col min="77" max="77" width="16.81640625" customWidth="1"/>
-    <col min="78" max="78" width="21.81640625" customWidth="1"/>
+    <col min="63" max="63" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.44140625" customWidth="1"/>
+    <col min="75" max="75" width="13.5546875" customWidth="1"/>
+    <col min="77" max="77" width="16.77734375" customWidth="1"/>
+    <col min="78" max="78" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="BY1" s="36"/>
       <c r="BZ1" s="36"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -2239,15 +2239,6 @@
       <c r="BE3">
         <v>1.18</v>
       </c>
-      <c r="BT3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>236</v>
-      </c>
       <c r="BW3">
         <v>2.06</v>
       </c>
@@ -2261,7 +2252,7 @@
         <v>0.67847222222222225</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -2361,8 +2352,17 @@
       <c r="BE4">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT4" t="s">
+        <v>234</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>180</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>180</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>180</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>180</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>180</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>180</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>180</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>180</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>180</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>180</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>180</v>
       </c>
@@ -3829,15 +3829,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.81640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="17.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>74</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>18</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>101</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>104</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>24</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>27</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>112</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>113</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>28</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>30</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>31</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>33</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>34</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>183</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>35</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>36</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>37</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>38</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>39</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>189</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>41</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>44</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>45</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>46</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>188</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>47</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>48</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>49</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>50</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>51</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>52</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>53</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>185</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>54</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>55</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>56</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>57</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>59</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>187</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>60</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>61</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>62</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>63</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>64</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>65</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>190</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>66</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>67</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>68</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>69</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>70</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>71</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>72</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>73</v>
       </c>
@@ -4620,17 +4620,17 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="24"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4871,14 +4871,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>155</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>158</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>159</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>161</v>
       </c>
@@ -5002,6 +5002,57 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5472,63 +5523,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1607FE67-3D8D-4C3D-8C41-1EC6E64C3F87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5551,28 +5573,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
